--- a/docs/ProjectPlan.xlsx
+++ b/docs/ProjectPlan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ETH\Summer2017\pcbSummer2017\work\admin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ETH\Summer2017\repo\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>Project plan</t>
   </si>
@@ -156,6 +156,9 @@
   </si>
   <si>
     <t>M4:Verified Device Hand off</t>
+  </si>
+  <si>
+    <t>T34: 3D model</t>
   </si>
 </sst>
 </file>
@@ -820,6 +823,17 @@
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -838,17 +852,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1132,7 +1135,7 @@
   <dimension ref="A1:DI32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="AR24" sqref="AR24:AT24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1147,112 +1150,112 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="77" t="s">
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
-      <c r="W1" s="78"/>
-      <c r="X1" s="78"/>
-      <c r="Y1" s="78"/>
-      <c r="Z1" s="78"/>
-      <c r="AA1" s="78"/>
-      <c r="AB1" s="78"/>
-      <c r="AC1" s="78"/>
-      <c r="AD1" s="78"/>
-      <c r="AE1" s="78"/>
-      <c r="AF1" s="78"/>
-      <c r="AG1" s="78"/>
-      <c r="AH1" s="78"/>
-      <c r="AI1" s="78"/>
-      <c r="AJ1" s="78"/>
-      <c r="AK1" s="75" t="s">
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="83"/>
+      <c r="V1" s="83"/>
+      <c r="W1" s="83"/>
+      <c r="X1" s="83"/>
+      <c r="Y1" s="83"/>
+      <c r="Z1" s="83"/>
+      <c r="AA1" s="83"/>
+      <c r="AB1" s="83"/>
+      <c r="AC1" s="83"/>
+      <c r="AD1" s="83"/>
+      <c r="AE1" s="83"/>
+      <c r="AF1" s="83"/>
+      <c r="AG1" s="83"/>
+      <c r="AH1" s="83"/>
+      <c r="AI1" s="83"/>
+      <c r="AJ1" s="83"/>
+      <c r="AK1" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="AL1" s="75"/>
-      <c r="AM1" s="75"/>
-      <c r="AN1" s="75"/>
-      <c r="AO1" s="75"/>
-      <c r="AP1" s="75"/>
-      <c r="AQ1" s="75"/>
-      <c r="AR1" s="75"/>
-      <c r="AS1" s="75"/>
-      <c r="AT1" s="75"/>
-      <c r="AU1" s="75"/>
-      <c r="AV1" s="75"/>
-      <c r="AW1" s="75"/>
-      <c r="AX1" s="75"/>
-      <c r="AY1" s="75"/>
-      <c r="AZ1" s="75"/>
-      <c r="BA1" s="75"/>
-      <c r="BB1" s="75"/>
-      <c r="BC1" s="75"/>
-      <c r="BD1" s="75"/>
-      <c r="BE1" s="75"/>
-      <c r="BF1" s="75"/>
-      <c r="BG1" s="75"/>
-      <c r="BH1" s="75"/>
-      <c r="BI1" s="75"/>
-      <c r="BJ1" s="75"/>
-      <c r="BK1" s="75"/>
-      <c r="BL1" s="75"/>
-      <c r="BM1" s="79" t="s">
+      <c r="AL1" s="80"/>
+      <c r="AM1" s="80"/>
+      <c r="AN1" s="80"/>
+      <c r="AO1" s="80"/>
+      <c r="AP1" s="80"/>
+      <c r="AQ1" s="80"/>
+      <c r="AR1" s="80"/>
+      <c r="AS1" s="80"/>
+      <c r="AT1" s="80"/>
+      <c r="AU1" s="80"/>
+      <c r="AV1" s="80"/>
+      <c r="AW1" s="80"/>
+      <c r="AX1" s="80"/>
+      <c r="AY1" s="80"/>
+      <c r="AZ1" s="80"/>
+      <c r="BA1" s="80"/>
+      <c r="BB1" s="80"/>
+      <c r="BC1" s="80"/>
+      <c r="BD1" s="80"/>
+      <c r="BE1" s="80"/>
+      <c r="BF1" s="80"/>
+      <c r="BG1" s="80"/>
+      <c r="BH1" s="80"/>
+      <c r="BI1" s="80"/>
+      <c r="BJ1" s="80"/>
+      <c r="BK1" s="80"/>
+      <c r="BL1" s="80"/>
+      <c r="BM1" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="BN1" s="79"/>
-      <c r="BO1" s="79"/>
-      <c r="BP1" s="79"/>
-      <c r="BQ1" s="79"/>
-      <c r="BR1" s="79"/>
-      <c r="BS1" s="79"/>
-      <c r="BT1" s="79"/>
-      <c r="BU1" s="79"/>
-      <c r="BV1" s="79"/>
-      <c r="BW1" s="79"/>
-      <c r="BX1" s="79"/>
-      <c r="BY1" s="79"/>
-      <c r="BZ1" s="79"/>
-      <c r="CA1" s="79"/>
-      <c r="CB1" s="79"/>
-      <c r="CC1" s="79"/>
-      <c r="CD1" s="79"/>
-      <c r="CE1" s="79"/>
-      <c r="CF1" s="79"/>
-      <c r="CG1" s="79"/>
-      <c r="CH1" s="79"/>
-      <c r="CI1" s="79"/>
-      <c r="CJ1" s="79"/>
-      <c r="CK1" s="79"/>
-      <c r="CL1" s="79"/>
-      <c r="CM1" s="79"/>
-      <c r="CN1" s="79"/>
-      <c r="CO1" s="79"/>
-      <c r="CP1" s="79"/>
-      <c r="CQ1" s="79"/>
-      <c r="CR1" s="79"/>
-      <c r="CS1" s="79"/>
-      <c r="CT1" s="79"/>
-      <c r="CU1" s="79"/>
+      <c r="BN1" s="84"/>
+      <c r="BO1" s="84"/>
+      <c r="BP1" s="84"/>
+      <c r="BQ1" s="84"/>
+      <c r="BR1" s="84"/>
+      <c r="BS1" s="84"/>
+      <c r="BT1" s="84"/>
+      <c r="BU1" s="84"/>
+      <c r="BV1" s="84"/>
+      <c r="BW1" s="84"/>
+      <c r="BX1" s="84"/>
+      <c r="BY1" s="84"/>
+      <c r="BZ1" s="84"/>
+      <c r="CA1" s="84"/>
+      <c r="CB1" s="84"/>
+      <c r="CC1" s="84"/>
+      <c r="CD1" s="84"/>
+      <c r="CE1" s="84"/>
+      <c r="CF1" s="84"/>
+      <c r="CG1" s="84"/>
+      <c r="CH1" s="84"/>
+      <c r="CI1" s="84"/>
+      <c r="CJ1" s="84"/>
+      <c r="CK1" s="84"/>
+      <c r="CL1" s="84"/>
+      <c r="CM1" s="84"/>
+      <c r="CN1" s="84"/>
+      <c r="CO1" s="84"/>
+      <c r="CP1" s="84"/>
+      <c r="CQ1" s="84"/>
+      <c r="CR1" s="84"/>
+      <c r="CS1" s="84"/>
+      <c r="CT1" s="84"/>
+      <c r="CU1" s="84"/>
       <c r="CV1" s="61"/>
       <c r="CW1" s="61"/>
       <c r="CX1" s="61"/>
@@ -1272,150 +1275,150 @@
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="80" t="s">
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81"/>
-      <c r="N2" s="81"/>
-      <c r="O2" s="82"/>
-      <c r="P2" s="80" t="s">
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="78"/>
+      <c r="P2" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="81"/>
-      <c r="R2" s="81"/>
-      <c r="S2" s="81"/>
-      <c r="T2" s="81"/>
-      <c r="U2" s="81"/>
-      <c r="V2" s="82"/>
-      <c r="W2" s="80" t="s">
+      <c r="Q2" s="77"/>
+      <c r="R2" s="77"/>
+      <c r="S2" s="77"/>
+      <c r="T2" s="77"/>
+      <c r="U2" s="77"/>
+      <c r="V2" s="78"/>
+      <c r="W2" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="X2" s="81"/>
-      <c r="Y2" s="81"/>
-      <c r="Z2" s="81"/>
-      <c r="AA2" s="81"/>
-      <c r="AB2" s="81"/>
-      <c r="AC2" s="82"/>
-      <c r="AD2" s="80" t="s">
+      <c r="X2" s="77"/>
+      <c r="Y2" s="77"/>
+      <c r="Z2" s="77"/>
+      <c r="AA2" s="77"/>
+      <c r="AB2" s="77"/>
+      <c r="AC2" s="78"/>
+      <c r="AD2" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="81"/>
-      <c r="AF2" s="81"/>
-      <c r="AG2" s="81"/>
-      <c r="AH2" s="81"/>
-      <c r="AI2" s="81"/>
-      <c r="AJ2" s="82"/>
-      <c r="AK2" s="80" t="s">
+      <c r="AE2" s="77"/>
+      <c r="AF2" s="77"/>
+      <c r="AG2" s="77"/>
+      <c r="AH2" s="77"/>
+      <c r="AI2" s="77"/>
+      <c r="AJ2" s="78"/>
+      <c r="AK2" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="AL2" s="81"/>
-      <c r="AM2" s="81"/>
-      <c r="AN2" s="81"/>
-      <c r="AO2" s="81"/>
-      <c r="AP2" s="81"/>
-      <c r="AQ2" s="82"/>
-      <c r="AR2" s="80" t="s">
+      <c r="AL2" s="77"/>
+      <c r="AM2" s="77"/>
+      <c r="AN2" s="77"/>
+      <c r="AO2" s="77"/>
+      <c r="AP2" s="77"/>
+      <c r="AQ2" s="78"/>
+      <c r="AR2" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="AS2" s="81"/>
-      <c r="AT2" s="81"/>
-      <c r="AU2" s="81"/>
-      <c r="AV2" s="81"/>
-      <c r="AW2" s="81"/>
-      <c r="AX2" s="82"/>
-      <c r="AY2" s="80" t="s">
+      <c r="AS2" s="77"/>
+      <c r="AT2" s="77"/>
+      <c r="AU2" s="77"/>
+      <c r="AV2" s="77"/>
+      <c r="AW2" s="77"/>
+      <c r="AX2" s="78"/>
+      <c r="AY2" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="AZ2" s="81"/>
-      <c r="BA2" s="81"/>
-      <c r="BB2" s="81"/>
-      <c r="BC2" s="81"/>
-      <c r="BD2" s="81"/>
-      <c r="BE2" s="82"/>
-      <c r="BF2" s="80" t="s">
+      <c r="AZ2" s="77"/>
+      <c r="BA2" s="77"/>
+      <c r="BB2" s="77"/>
+      <c r="BC2" s="77"/>
+      <c r="BD2" s="77"/>
+      <c r="BE2" s="78"/>
+      <c r="BF2" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="BG2" s="81"/>
-      <c r="BH2" s="81"/>
-      <c r="BI2" s="81"/>
-      <c r="BJ2" s="81"/>
-      <c r="BK2" s="81"/>
-      <c r="BL2" s="82"/>
-      <c r="BM2" s="80" t="s">
+      <c r="BG2" s="77"/>
+      <c r="BH2" s="77"/>
+      <c r="BI2" s="77"/>
+      <c r="BJ2" s="77"/>
+      <c r="BK2" s="77"/>
+      <c r="BL2" s="78"/>
+      <c r="BM2" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="BN2" s="81"/>
-      <c r="BO2" s="81"/>
-      <c r="BP2" s="81"/>
-      <c r="BQ2" s="81"/>
-      <c r="BR2" s="81"/>
-      <c r="BS2" s="82"/>
-      <c r="BT2" s="80" t="s">
+      <c r="BN2" s="77"/>
+      <c r="BO2" s="77"/>
+      <c r="BP2" s="77"/>
+      <c r="BQ2" s="77"/>
+      <c r="BR2" s="77"/>
+      <c r="BS2" s="78"/>
+      <c r="BT2" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="BU2" s="81"/>
-      <c r="BV2" s="81"/>
-      <c r="BW2" s="81"/>
-      <c r="BX2" s="81"/>
-      <c r="BY2" s="81"/>
-      <c r="BZ2" s="82"/>
-      <c r="CA2" s="80" t="s">
+      <c r="BU2" s="77"/>
+      <c r="BV2" s="77"/>
+      <c r="BW2" s="77"/>
+      <c r="BX2" s="77"/>
+      <c r="BY2" s="77"/>
+      <c r="BZ2" s="78"/>
+      <c r="CA2" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="CB2" s="81"/>
-      <c r="CC2" s="81"/>
-      <c r="CD2" s="81"/>
-      <c r="CE2" s="81"/>
-      <c r="CF2" s="81"/>
-      <c r="CG2" s="82"/>
-      <c r="CH2" s="80" t="s">
+      <c r="CB2" s="77"/>
+      <c r="CC2" s="77"/>
+      <c r="CD2" s="77"/>
+      <c r="CE2" s="77"/>
+      <c r="CF2" s="77"/>
+      <c r="CG2" s="78"/>
+      <c r="CH2" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="CI2" s="81"/>
-      <c r="CJ2" s="81"/>
-      <c r="CK2" s="81"/>
-      <c r="CL2" s="81"/>
-      <c r="CM2" s="81"/>
-      <c r="CN2" s="82"/>
-      <c r="CO2" s="80" t="s">
+      <c r="CI2" s="77"/>
+      <c r="CJ2" s="77"/>
+      <c r="CK2" s="77"/>
+      <c r="CL2" s="77"/>
+      <c r="CM2" s="77"/>
+      <c r="CN2" s="78"/>
+      <c r="CO2" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="CP2" s="81"/>
-      <c r="CQ2" s="81"/>
-      <c r="CR2" s="81"/>
-      <c r="CS2" s="81"/>
-      <c r="CT2" s="81"/>
-      <c r="CU2" s="82"/>
-      <c r="CV2" s="80" t="s">
+      <c r="CP2" s="77"/>
+      <c r="CQ2" s="77"/>
+      <c r="CR2" s="77"/>
+      <c r="CS2" s="77"/>
+      <c r="CT2" s="77"/>
+      <c r="CU2" s="78"/>
+      <c r="CV2" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="CW2" s="81"/>
-      <c r="CX2" s="81"/>
-      <c r="CY2" s="81"/>
-      <c r="CZ2" s="81"/>
-      <c r="DA2" s="81"/>
-      <c r="DB2" s="82"/>
-      <c r="DC2" s="80" t="s">
+      <c r="CW2" s="77"/>
+      <c r="CX2" s="77"/>
+      <c r="CY2" s="77"/>
+      <c r="CZ2" s="77"/>
+      <c r="DA2" s="77"/>
+      <c r="DB2" s="78"/>
+      <c r="DC2" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="DD2" s="81"/>
-      <c r="DE2" s="81"/>
-      <c r="DF2" s="81"/>
-      <c r="DG2" s="81"/>
-      <c r="DH2" s="81"/>
-      <c r="DI2" s="82"/>
+      <c r="DD2" s="77"/>
+      <c r="DE2" s="77"/>
+      <c r="DF2" s="77"/>
+      <c r="DG2" s="77"/>
+      <c r="DH2" s="77"/>
+      <c r="DI2" s="78"/>
     </row>
     <row r="3" spans="1:113" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -4086,7 +4089,9 @@
       <c r="DI23" s="25"/>
     </row>
     <row r="24" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="A24" s="32"/>
+      <c r="A24" s="32" t="s">
+        <v>44</v>
+      </c>
       <c r="B24" s="23"/>
       <c r="C24" s="23"/>
       <c r="D24" s="23"/>
@@ -4129,9 +4134,9 @@
       <c r="AO24" s="27"/>
       <c r="AP24" s="33"/>
       <c r="AQ24" s="35"/>
-      <c r="AR24" s="37"/>
-      <c r="AS24" s="36"/>
-      <c r="AT24" s="37"/>
+      <c r="AR24" s="65"/>
+      <c r="AS24" s="64"/>
+      <c r="AT24" s="65"/>
       <c r="AU24" s="37"/>
       <c r="AV24" s="37"/>
       <c r="AW24" s="33"/>
@@ -4318,7 +4323,7 @@
       <c r="DI25" s="25"/>
     </row>
     <row r="26" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="A26" s="83" t="s">
+      <c r="A26" s="74" t="s">
         <v>40</v>
       </c>
       <c r="B26" s="23"/>
@@ -4669,7 +4674,7 @@
       <c r="DI28" s="25"/>
     </row>
     <row r="29" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="A29" s="84" t="s">
+      <c r="A29" s="75" t="s">
         <v>43</v>
       </c>
       <c r="B29" s="23"/>
@@ -5132,14 +5137,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="CV2:DB2"/>
-    <mergeCell ref="DC2:DI2"/>
-    <mergeCell ref="AR2:AX2"/>
-    <mergeCell ref="AY2:BE2"/>
-    <mergeCell ref="BF2:BL2"/>
-    <mergeCell ref="BM2:BS2"/>
-    <mergeCell ref="BT2:BZ2"/>
-    <mergeCell ref="CA2:CG2"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="I1:AJ1"/>
     <mergeCell ref="AK1:BL1"/>
@@ -5152,6 +5149,14 @@
     <mergeCell ref="W2:AC2"/>
     <mergeCell ref="AD2:AJ2"/>
     <mergeCell ref="AK2:AQ2"/>
+    <mergeCell ref="CV2:DB2"/>
+    <mergeCell ref="DC2:DI2"/>
+    <mergeCell ref="AR2:AX2"/>
+    <mergeCell ref="AY2:BE2"/>
+    <mergeCell ref="BF2:BL2"/>
+    <mergeCell ref="BM2:BS2"/>
+    <mergeCell ref="BT2:BZ2"/>
+    <mergeCell ref="CA2:CG2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
